--- a/data/georgia_census/shida-qartli/gori/healthcare_staff.xlsx
+++ b/data/georgia_census/shida-qartli/gori/healthcare_staff.xlsx
@@ -1310,13 +1310,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1AC30485-6CB0-426A-BB93-DAF2F43B4EF0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B56EF05C-2412-48D9-973F-9459066D1B82}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABD2DDB7-9200-4577-98CE-AF783FFE79D9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8086C4DA-C942-4EF6-91A5-9B0631A49575}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EC5C03B-F6FF-486E-AAAF-9F2E6DC83DE1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8E3101A-9206-4CA0-920D-7D4211BD99BD}"/>
 </file>